--- a/fieldDescriptions.xlsx
+++ b/fieldDescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kristina\git local\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FAC533-42D1-497C-99DA-BA7F0FDB0492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC40D14-61D9-4764-9523-503F3C907B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40260" yWindow="2720" windowWidth="25090" windowHeight="17250" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
+    <workbookView xWindow="6390" yWindow="2290" windowWidth="28800" windowHeight="15910" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>animal</t>
   </si>
@@ -84,9 +84,6 @@
     <t>problem</t>
   </si>
   <si>
-    <t>exeperiment ID</t>
-  </si>
-  <si>
     <t>user input</t>
   </si>
   <si>
@@ -136,13 +133,130 @@
   </si>
   <si>
     <t>rearing type (normal, DR, BLS, LLS, RLS)</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>experimentkey</t>
+  </si>
+  <si>
+    <t>unitNr</t>
+  </si>
+  <si>
+    <t>experimentNr</t>
+  </si>
+  <si>
+    <t>expManipulation</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>recExists</t>
+  </si>
+  <si>
+    <t>Nsites</t>
+  </si>
+  <si>
+    <t>looperName1</t>
+  </si>
+  <si>
+    <t>looperVal1</t>
+  </si>
+  <si>
+    <t>looperBlock1</t>
+  </si>
+  <si>
+    <t>looperName2</t>
+  </si>
+  <si>
+    <t>looperVal2</t>
+  </si>
+  <si>
+    <t>looperBlock2</t>
+  </si>
+  <si>
+    <t>looperName3</t>
+  </si>
+  <si>
+    <t>looperVal3</t>
+  </si>
+  <si>
+    <t>looperBlock3</t>
+  </si>
+  <si>
+    <t>looperName4</t>
+  </si>
+  <si>
+    <t>looperVal5</t>
+  </si>
+  <si>
+    <t>looperVal4</t>
+  </si>
+  <si>
+    <t>looperBlock5</t>
+  </si>
+  <si>
+    <t>looperBlock4</t>
+  </si>
+  <si>
+    <t>looperName5</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>reps</t>
+  </si>
+  <si>
+    <t>trialrand</t>
+  </si>
+  <si>
+    <t>experiment ID</t>
+  </si>
+  <si>
+    <t>link to animal table</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>extra manipulation? (inactivation etc)</t>
+  </si>
+  <si>
+    <t>abort?</t>
+  </si>
+  <si>
+    <t>physiology file present?</t>
+  </si>
+  <si>
+    <t>number of recording sites</t>
+  </si>
+  <si>
+    <t>analyzer</t>
+  </si>
+  <si>
+    <t>looper variables</t>
+  </si>
+  <si>
+    <t>looper values</t>
+  </si>
+  <si>
+    <t>blocked?</t>
+  </si>
+  <si>
+    <t>nr reps</t>
+  </si>
+  <si>
+    <t>trials randomized?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +264,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,13 +294,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,14 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D267FFB-EC41-4923-A2A0-9D7FCAE18FDA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
@@ -551,14 +681,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -566,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -575,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -583,18 +713,18 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -603,15 +733,15 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -620,63 +750,343 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/fieldDescriptions.xlsx
+++ b/fieldDescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kristina\git local\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC40D14-61D9-4764-9523-503F3C907B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B532C727-80C3-442E-B27A-C66F18EA34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="2290" windowWidth="28800" windowHeight="15910" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
+    <workbookView xWindow="10330" yWindow="1080" windowWidth="25090" windowHeight="17250" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>animal</t>
   </si>
@@ -250,13 +250,88 @@
   </si>
   <si>
     <t>trials randomized?</t>
+  </si>
+  <si>
+    <t>manipulation</t>
+  </si>
+  <si>
+    <t>manipulationkey</t>
+  </si>
+  <si>
+    <t>experimentKey</t>
+  </si>
+  <si>
+    <t>link to experiment table</t>
+  </si>
+  <si>
+    <t>manipulationDescr</t>
+  </si>
+  <si>
+    <t>type of manipulation</t>
+  </si>
+  <si>
+    <t>manipulationArea</t>
+  </si>
+  <si>
+    <t>area that was manipulated</t>
+  </si>
+  <si>
+    <t>manipulationStimulus</t>
+  </si>
+  <si>
+    <t>stimulus used during training experiments</t>
+  </si>
+  <si>
+    <t>recording</t>
+  </si>
+  <si>
+    <t>recordingkey</t>
+  </si>
+  <si>
+    <t>recSite</t>
+  </si>
+  <si>
+    <t>recProbe</t>
+  </si>
+  <si>
+    <t>spikeSorted</t>
+  </si>
+  <si>
+    <t>NSingleUnit</t>
+  </si>
+  <si>
+    <t>NMultiUnit</t>
+  </si>
+  <si>
+    <t>isBlackrock</t>
+  </si>
+  <si>
+    <t>oldSpikeFormat</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>paramskey</t>
+  </si>
+  <si>
+    <t>pname</t>
+  </si>
+  <si>
+    <t>parameter name</t>
+  </si>
+  <si>
+    <t>pval</t>
+  </si>
+  <si>
+    <t>parameter value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +346,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +364,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,16 +381,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D267FFB-EC41-4923-A2A0-9D7FCAE18FDA}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" customWidth="1"/>
@@ -813,7 +903,7 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
@@ -899,7 +989,7 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
@@ -910,7 +1000,7 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
@@ -921,7 +1011,7 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
@@ -932,7 +1022,7 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
@@ -943,7 +1033,7 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
@@ -954,7 +1044,7 @@
         <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -965,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
@@ -976,7 +1066,7 @@
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
@@ -987,7 +1077,7 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
@@ -998,7 +1088,7 @@
         <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -1009,7 +1099,7 @@
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -1020,10 +1110,10 @@
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>55</v>
       </c>
@@ -1031,10 +1121,10 @@
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>51</v>
       </c>
@@ -1042,10 +1132,10 @@
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -1053,10 +1143,10 @@
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>56</v>
       </c>
@@ -1064,10 +1154,10 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>57</v>
       </c>
@@ -1075,10 +1165,10 @@
         <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>58</v>
       </c>
@@ -1086,7 +1176,154 @@
         <v>71</v>
       </c>
       <c r="D38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/fieldDescriptions.xlsx
+++ b/fieldDescriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kristina\git local\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B532C727-80C3-442E-B27A-C66F18EA34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D198C-678F-4570-8113-8DDBA73B2345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10330" yWindow="1080" windowWidth="25090" windowHeight="17250" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
+    <workbookView xWindow="10330" yWindow="2780" windowWidth="28800" windowHeight="15910" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>animal</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>parameter value</t>
+  </si>
+  <si>
+    <t>user input/id file</t>
+  </si>
+  <si>
+    <t>id file</t>
   </si>
 </sst>
 </file>
@@ -708,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D267FFB-EC41-4923-A2A0-9D7FCAE18FDA}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,35 +1260,56 @@
       <c r="B46" t="s">
         <v>84</v>
       </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>85</v>
       </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>86</v>
       </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>87</v>
       </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>88</v>
       </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>89</v>
       </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">

--- a/fieldDescriptions.xlsx
+++ b/fieldDescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kristina\git local\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D198C-678F-4570-8113-8DDBA73B2345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B88734E-3B16-4660-8F12-72B3518D1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10330" yWindow="2780" windowWidth="28800" windowHeight="15910" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
+    <workbookView xWindow="10330" yWindow="1080" windowWidth="25090" windowHeight="17250" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="105">
   <si>
     <t>animal</t>
   </si>
@@ -331,6 +331,24 @@
   </si>
   <si>
     <t>id file</t>
+  </si>
+  <si>
+    <t>looperNameCond1</t>
+  </si>
+  <si>
+    <t>name of looper variable plus nr of conditions</t>
+  </si>
+  <si>
+    <t>looperNameCond2</t>
+  </si>
+  <si>
+    <t>looperNameCond3</t>
+  </si>
+  <si>
+    <t>looperNameCond4</t>
+  </si>
+  <si>
+    <t>looperNameCond5</t>
   </si>
 </sst>
 </file>
@@ -712,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D267FFB-EC41-4923-A2A0-9D7FCAE18FDA}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1186,63 +1204,66 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="2" t="s">
-        <v>74</v>
+      <c r="B40" t="s">
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1258,47 +1279,59 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
       <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
+      <c r="B50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
@@ -1306,50 +1339,90 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>91</v>
-      </c>
       <c r="B53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C61" t="s">
         <v>96</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D61" t="s">
         <v>66</v>
       </c>
     </row>

--- a/fieldDescriptions.xlsx
+++ b/fieldDescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kristina\git local\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B88734E-3B16-4660-8F12-72B3518D1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D198C-678F-4570-8113-8DDBA73B2345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10330" yWindow="1080" windowWidth="25090" windowHeight="17250" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
+    <workbookView xWindow="10330" yWindow="2780" windowWidth="28800" windowHeight="15910" xr2:uid="{F22F327C-87A1-4770-835F-CDFD32067462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>animal</t>
   </si>
@@ -331,24 +331,6 @@
   </si>
   <si>
     <t>id file</t>
-  </si>
-  <si>
-    <t>looperNameCond1</t>
-  </si>
-  <si>
-    <t>name of looper variable plus nr of conditions</t>
-  </si>
-  <si>
-    <t>looperNameCond2</t>
-  </si>
-  <si>
-    <t>looperNameCond3</t>
-  </si>
-  <si>
-    <t>looperNameCond4</t>
-  </si>
-  <si>
-    <t>looperNameCond5</t>
   </si>
 </sst>
 </file>
@@ -730,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D267FFB-EC41-4923-A2A0-9D7FCAE18FDA}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,66 +1186,63 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>101</v>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1279,59 +1258,47 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
       <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" t="s">
-        <v>75</v>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
@@ -1339,90 +1306,50 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>98</v>
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" t="s">
         <v>66</v>
       </c>
     </row>
